--- a/Code/Results/Cases/Case_3_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.95741968544315</v>
+        <v>13.27203888085698</v>
       </c>
       <c r="C2">
-        <v>12.49314929950076</v>
+        <v>7.084572124863138</v>
       </c>
       <c r="D2">
-        <v>7.127397361878905</v>
+        <v>10.45597354189872</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.51557584089308</v>
+        <v>31.70197540192411</v>
       </c>
       <c r="G2">
-        <v>2.074272251716387</v>
+        <v>3.637569065551868</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.538393781633594</v>
+        <v>11.06776927751137</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.05533789848366</v>
+        <v>17.34413240756627</v>
       </c>
       <c r="N2">
-        <v>11.77122624387426</v>
+        <v>17.67072498597568</v>
       </c>
       <c r="O2">
-        <v>16.12928650955512</v>
+        <v>23.14078447566093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.68676402792553</v>
+        <v>12.79903856225786</v>
       </c>
       <c r="C3">
-        <v>11.73106174770663</v>
+        <v>6.657861896246311</v>
       </c>
       <c r="D3">
-        <v>6.921592437886619</v>
+        <v>10.44229342651588</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.90680480853768</v>
+        <v>31.71141831923629</v>
       </c>
       <c r="G3">
-        <v>2.079962878902347</v>
+        <v>3.639749351830011</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.535699714555244</v>
+        <v>11.09396232882589</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.27876238998551</v>
+        <v>17.19908823864537</v>
       </c>
       <c r="N3">
-        <v>11.95073690915977</v>
+        <v>17.72789749605345</v>
       </c>
       <c r="O3">
-        <v>15.85850340137981</v>
+        <v>23.18266553470111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.86070557996673</v>
+        <v>12.50147432924666</v>
       </c>
       <c r="C4">
-        <v>11.23738723935021</v>
+        <v>6.380264284868953</v>
       </c>
       <c r="D4">
-        <v>6.79530387381126</v>
+        <v>10.43544051920198</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.54825369738532</v>
+        <v>31.72587714722316</v>
       </c>
       <c r="G4">
-        <v>2.083564813917678</v>
+        <v>3.641159532637534</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.537712674012471</v>
+        <v>11.11158790185934</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.78568472638639</v>
+        <v>17.11236247483355</v>
       </c>
       <c r="N4">
-        <v>12.06420329172284</v>
+        <v>17.76484286231151</v>
       </c>
       <c r="O4">
-        <v>15.70668555251563</v>
+        <v>23.21437748494183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.51247811786597</v>
+        <v>12.37860906608532</v>
       </c>
       <c r="C5">
-        <v>11.02976251714321</v>
+        <v>6.26324163770474</v>
       </c>
       <c r="D5">
-        <v>6.743927614181739</v>
+        <v>10.43303910207635</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.40608343731375</v>
+        <v>31.73394468762481</v>
       </c>
       <c r="G5">
-        <v>2.08506045091133</v>
+        <v>3.641752223775823</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.539427588594253</v>
+        <v>11.11915844335343</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.58089109332762</v>
+        <v>17.07763960728647</v>
       </c>
       <c r="N5">
-        <v>12.11126443825297</v>
+        <v>17.78036252317901</v>
       </c>
       <c r="O5">
-        <v>15.64840700283947</v>
+        <v>23.22880406061364</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.45395256330349</v>
+        <v>12.3581163252368</v>
       </c>
       <c r="C6">
-        <v>10.99489819994549</v>
+        <v>6.243575400836955</v>
       </c>
       <c r="D6">
-        <v>6.73540395819571</v>
+        <v>10.43266403760676</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.38271729588634</v>
+        <v>31.73541559200172</v>
       </c>
       <c r="G6">
-        <v>2.085310500236638</v>
+        <v>3.641851730414528</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.539765580324507</v>
+        <v>11.12043895852199</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.54665958749701</v>
+        <v>17.07191218216852</v>
       </c>
       <c r="N6">
-        <v>12.11912879044977</v>
+        <v>17.78296761664036</v>
       </c>
       <c r="O6">
-        <v>15.6389450990386</v>
+        <v>23.23129026786638</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.85605632608739</v>
+        <v>12.4998235613357</v>
       </c>
       <c r="C7">
-        <v>11.23461320291799</v>
+        <v>6.378701830174492</v>
       </c>
       <c r="D7">
-        <v>6.794610549370385</v>
+        <v>10.43540654608354</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.54632023904885</v>
+        <v>31.72597714478151</v>
       </c>
       <c r="G7">
-        <v>2.083584871065042</v>
+        <v>3.641167452793485</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.537732215894963</v>
+        <v>11.11168842994104</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.7829381070176</v>
+        <v>17.11189164374949</v>
       </c>
       <c r="N7">
-        <v>12.06483463494157</v>
+        <v>17.76505028515813</v>
       </c>
       <c r="O7">
-        <v>15.70588512518978</v>
+        <v>23.21456596440028</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.52877667581966</v>
+        <v>13.11053875302103</v>
       </c>
       <c r="C8">
-        <v>12.2357373251139</v>
+        <v>6.940690591669128</v>
       </c>
       <c r="D8">
-        <v>7.056459673576103</v>
+        <v>10.45093703071228</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.30257848339006</v>
+        <v>31.7034327270385</v>
       </c>
       <c r="G8">
-        <v>2.076212421437002</v>
+        <v>3.638306028177488</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.536687149003378</v>
+        <v>11.07648040549013</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.79107252810129</v>
+        <v>17.2936568185116</v>
       </c>
       <c r="N8">
-        <v>11.8324515116682</v>
+        <v>17.69005660650178</v>
       </c>
       <c r="O8">
-        <v>16.0329002374984</v>
+        <v>23.1539780242778</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.44818833065335</v>
+        <v>14.24405346480193</v>
       </c>
       <c r="C9">
-        <v>13.99417117989425</v>
+        <v>7.918353713140169</v>
       </c>
       <c r="D9">
-        <v>7.567770058968727</v>
+        <v>10.49355743269644</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.90132389973972</v>
+        <v>31.7279920504852</v>
       </c>
       <c r="G9">
-        <v>2.062577657316747</v>
+        <v>3.633259281782129</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.564976855425579</v>
+        <v>11.01968025325703</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.63107050315148</v>
+        <v>17.66713987210077</v>
       </c>
       <c r="N9">
-        <v>11.4022393183689</v>
+        <v>17.55755159666633</v>
       </c>
       <c r="O9">
-        <v>16.79014633958934</v>
+        <v>23.08291576116294</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.37772660702452</v>
+        <v>15.02902936457002</v>
       </c>
       <c r="C10">
-        <v>15.1614907162115</v>
+        <v>8.56030504557434</v>
       </c>
       <c r="D10">
-        <v>7.938735782180058</v>
+        <v>10.53213068749993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.13959509695725</v>
+        <v>31.78794129653967</v>
       </c>
       <c r="G10">
-        <v>2.053012340227784</v>
+        <v>3.629891886679638</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.60597733462532</v>
+        <v>10.98541276212337</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.11422328616426</v>
+        <v>17.94991729532204</v>
       </c>
       <c r="N10">
-        <v>11.10138304864715</v>
+        <v>17.46900217109954</v>
       </c>
       <c r="O10">
-        <v>17.418402709305</v>
+        <v>23.06001439535414</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.20980905844418</v>
+        <v>15.37423297662803</v>
       </c>
       <c r="C11">
-        <v>15.6657178422297</v>
+        <v>8.835740892264496</v>
       </c>
       <c r="D11">
-        <v>8.105878165401634</v>
+        <v>10.55121730727674</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.71540674705583</v>
+        <v>31.82427895689543</v>
       </c>
       <c r="G11">
-        <v>2.048747298325838</v>
+        <v>3.628433113190126</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.629393999953328</v>
+        <v>10.97144408153282</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.76203412610713</v>
+        <v>18.07994103085872</v>
       </c>
       <c r="N11">
-        <v>10.96777468958851</v>
+        <v>17.43061482775194</v>
       </c>
       <c r="O11">
-        <v>17.71994103591925</v>
+        <v>23.05599015872033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.51841783724151</v>
+        <v>15.50313689205283</v>
       </c>
       <c r="C12">
-        <v>15.85283103677544</v>
+        <v>8.937656072533105</v>
       </c>
       <c r="D12">
-        <v>8.168896744042673</v>
+        <v>10.55866269813642</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.93515497444852</v>
+        <v>31.83933735710488</v>
       </c>
       <c r="G12">
-        <v>2.047143606058194</v>
+        <v>3.627891161729676</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.638977687695341</v>
+        <v>10.9663874025355</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.00246286814027</v>
+        <v>18.12933984078669</v>
       </c>
       <c r="N12">
-        <v>10.91764720273603</v>
+        <v>17.41634982827334</v>
       </c>
       <c r="O12">
-        <v>17.8363921748828</v>
+        <v>23.0553870717086</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.45224034230849</v>
+        <v>15.47545752437697</v>
       </c>
       <c r="C13">
-        <v>15.81270257086046</v>
+        <v>8.915812938108328</v>
       </c>
       <c r="D13">
-        <v>8.155337394668811</v>
+        <v>10.55704957833549</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.88775400573778</v>
+        <v>31.83603663296311</v>
       </c>
       <c r="G13">
-        <v>2.047488500482681</v>
+        <v>3.628007416553432</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.636881311716321</v>
+        <v>10.96746608759866</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.95089823617248</v>
+        <v>18.11869433538514</v>
       </c>
       <c r="N13">
-        <v>10.92842226971084</v>
+        <v>17.41940999277703</v>
       </c>
       <c r="O13">
-        <v>17.81121157186737</v>
+        <v>23.05547598912198</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.23532791200783</v>
+        <v>15.38487496933835</v>
       </c>
       <c r="C14">
-        <v>15.68118827728192</v>
+        <v>8.844173338471972</v>
       </c>
       <c r="D14">
-        <v>8.111068468625549</v>
+        <v>10.55182550276454</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.73345198356148</v>
+        <v>31.82549184201999</v>
       </c>
       <c r="G14">
-        <v>2.048615139494938</v>
+        <v>3.628388317299085</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.630167920358387</v>
+        <v>10.9710233965508</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.78191178577547</v>
+        <v>18.08400207745137</v>
       </c>
       <c r="N14">
-        <v>10.96364130673022</v>
+        <v>17.42943580258311</v>
       </c>
       <c r="O14">
-        <v>17.72947613633088</v>
+        <v>23.05592208247177</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.1016211258723</v>
+        <v>15.32915091168999</v>
       </c>
       <c r="C15">
-        <v>15.60013451343812</v>
+        <v>8.799981253765154</v>
       </c>
       <c r="D15">
-        <v>8.08391554546809</v>
+        <v>10.54865384433168</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.63915639710472</v>
+        <v>31.81920171309385</v>
       </c>
       <c r="G15">
-        <v>2.049306689786293</v>
+        <v>3.628622989903923</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.62614998788586</v>
+        <v>10.9732326896939</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.67776896235578</v>
+        <v>18.06277199733788</v>
       </c>
       <c r="N15">
-        <v>10.98527482667201</v>
+        <v>17.43561222459787</v>
       </c>
       <c r="O15">
-        <v>17.67970584949155</v>
+        <v>23.05631527349447</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.32243616966034</v>
+        <v>15.00622077436713</v>
       </c>
       <c r="C16">
-        <v>15.12800123113368</v>
+        <v>8.541970707429797</v>
       </c>
       <c r="D16">
-        <v>7.927776396628242</v>
+        <v>10.53091400099747</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.10220746836753</v>
+        <v>31.78574853902451</v>
       </c>
       <c r="G16">
-        <v>2.053292721265354</v>
+        <v>3.62998868678638</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.604545535752428</v>
+        <v>10.98635824564298</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.07120001306464</v>
+        <v>17.94144461578217</v>
       </c>
       <c r="N16">
-        <v>11.11018002640052</v>
+        <v>17.47154891073035</v>
       </c>
       <c r="O16">
-        <v>17.39901337114698</v>
+        <v>23.06040618096834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.83279255735712</v>
+        <v>14.80498807500203</v>
       </c>
       <c r="C17">
-        <v>14.8315169901638</v>
+        <v>8.379439073151641</v>
       </c>
       <c r="D17">
-        <v>7.831544815392316</v>
+        <v>10.52042293048951</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.77593680222484</v>
+        <v>31.76754471784136</v>
       </c>
       <c r="G17">
-        <v>2.055759415822978</v>
+        <v>3.630845174963801</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.592534379976951</v>
+        <v>10.99482524222494</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.69031433298527</v>
+        <v>17.86734253093158</v>
       </c>
       <c r="N17">
-        <v>11.18763740427405</v>
+        <v>17.49407939074556</v>
       </c>
       <c r="O17">
-        <v>17.23085074756214</v>
+        <v>23.06455460611362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.54685811928075</v>
+        <v>14.68813113684537</v>
       </c>
       <c r="C18">
-        <v>14.65846327061813</v>
+        <v>8.284393429126254</v>
       </c>
       <c r="D18">
-        <v>7.776045418557382</v>
+        <v>10.51453387823821</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.58945761287432</v>
+        <v>31.75792817244405</v>
       </c>
       <c r="G18">
-        <v>2.05718637848852</v>
+        <v>3.631344685292036</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.586072536334858</v>
+        <v>10.99984769423678</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.46799128674301</v>
+        <v>17.82485377785553</v>
       </c>
       <c r="N18">
-        <v>11.2324949341951</v>
+        <v>17.50721667565373</v>
       </c>
       <c r="O18">
-        <v>17.1356097655501</v>
+        <v>23.06754243473275</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.44930381784711</v>
+        <v>14.64837770811606</v>
       </c>
       <c r="C19">
-        <v>14.59943610053362</v>
+        <v>8.251944431171927</v>
       </c>
       <c r="D19">
-        <v>7.757230000648933</v>
+        <v>10.51256498150274</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.52652543852986</v>
+        <v>31.75481896469006</v>
       </c>
       <c r="G19">
-        <v>2.057670959206826</v>
+        <v>3.63151499434889</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.583960441552442</v>
+        <v>11.0015743939182</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.39215661133867</v>
+        <v>17.81049177677127</v>
       </c>
       <c r="N19">
-        <v>11.24773554318023</v>
+        <v>17.51169539500732</v>
       </c>
       <c r="O19">
-        <v>17.10361723137503</v>
+        <v>23.06865736239604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.88536083845052</v>
+        <v>14.82652567856178</v>
       </c>
       <c r="C20">
-        <v>14.86333928234727</v>
+        <v>8.396902489371492</v>
       </c>
       <c r="D20">
-        <v>7.841804638114613</v>
+        <v>10.52152472792753</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.81054719843202</v>
+        <v>31.76939421530695</v>
       </c>
       <c r="G20">
-        <v>2.055495991987531</v>
+        <v>3.630753288565622</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.593766537357837</v>
+        <v>10.99390813668455</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.7311958793662</v>
+        <v>17.87521735313195</v>
       </c>
       <c r="N20">
-        <v>11.17936026480665</v>
+        <v>17.49166253108827</v>
       </c>
       <c r="O20">
-        <v>17.24859858187923</v>
+        <v>23.064050706588</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.29921559447549</v>
+        <v>15.41153137354508</v>
       </c>
       <c r="C21">
-        <v>15.71992082822155</v>
+        <v>8.865280386031605</v>
       </c>
       <c r="D21">
-        <v>8.12407908866145</v>
+        <v>10.55335406232126</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.77872876988696</v>
+        <v>31.82855392464025</v>
       </c>
       <c r="G21">
-        <v>2.04828391776829</v>
+        <v>3.628276154209082</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.632120116026639</v>
+        <v>10.96997220608337</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.83167914086512</v>
+        <v>18.09418794861271</v>
       </c>
       <c r="N21">
-        <v>10.95328394073023</v>
+        <v>17.42648361935548</v>
       </c>
       <c r="O21">
-        <v>17.75342232852986</v>
+        <v>23.05576605585183</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.1855070705306</v>
+        <v>15.78323358720843</v>
       </c>
       <c r="C22">
-        <v>16.25745819549547</v>
+        <v>9.157483794040401</v>
       </c>
       <c r="D22">
-        <v>8.306945668081257</v>
+        <v>10.57542345581773</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.42137237383927</v>
+        <v>31.87478094495084</v>
       </c>
       <c r="G22">
-        <v>2.043636252261873</v>
+        <v>3.626718115562094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.661376334625515</v>
+        <v>10.95568654978669</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.52248173893314</v>
+        <v>18.2382226009439</v>
       </c>
       <c r="N22">
-        <v>10.80825371011296</v>
+        <v>17.38546725860113</v>
       </c>
       <c r="O22">
-        <v>18.09655797826661</v>
+        <v>23.05571888385917</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.71590110539491</v>
+        <v>15.58585426490859</v>
       </c>
       <c r="C23">
-        <v>15.97259348573396</v>
+        <v>9.002801651626932</v>
       </c>
       <c r="D23">
-        <v>8.209506736282796</v>
+        <v>10.56352993403096</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.0775053189937</v>
+        <v>31.84941897780399</v>
       </c>
       <c r="G23">
-        <v>2.046111130627211</v>
+        <v>3.627544114137567</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.6453679736377</v>
+        <v>10.96318682159911</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.15636379608359</v>
+        <v>18.16127645304474</v>
       </c>
       <c r="N23">
-        <v>10.88540956225319</v>
+        <v>17.40721402799085</v>
       </c>
       <c r="O23">
-        <v>17.91221121449977</v>
+        <v>23.05525266095609</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.86160852903843</v>
+        <v>14.81679215014772</v>
       </c>
       <c r="C24">
-        <v>14.84896052741929</v>
+        <v>8.389012275120708</v>
       </c>
       <c r="D24">
-        <v>7.837166712711653</v>
+        <v>10.52102616146408</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.79489641003029</v>
+        <v>31.76855541224856</v>
       </c>
       <c r="G24">
-        <v>2.055615058333146</v>
+        <v>3.630794808273735</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.593208099854619</v>
+        <v>10.99432227833613</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.71272376213748</v>
+        <v>17.87165678951249</v>
       </c>
       <c r="N24">
-        <v>11.18310134328621</v>
+        <v>17.49275461943854</v>
       </c>
       <c r="O24">
-        <v>17.24057030717831</v>
+        <v>23.06427664181916</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.69657142137186</v>
+        <v>13.94523756941284</v>
       </c>
       <c r="C25">
-        <v>13.5404034315301</v>
+        <v>7.667255372727612</v>
       </c>
       <c r="D25">
-        <v>7.430047930159827</v>
+        <v>10.48074033843802</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.45715185897587</v>
+        <v>31.71398193021379</v>
       </c>
       <c r="G25">
-        <v>2.066183067996207</v>
+        <v>3.634564509281321</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.553898985339236</v>
+        <v>11.03373547464611</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.14892770642605</v>
+        <v>17.56448338534523</v>
       </c>
       <c r="N25">
-        <v>11.51593075721872</v>
+        <v>17.59184682850477</v>
       </c>
       <c r="O25">
-        <v>16.57271741355378</v>
+        <v>23.09700517200572</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.27203888085698</v>
+        <v>18.95741968544318</v>
       </c>
       <c r="C2">
-        <v>7.084572124863138</v>
+        <v>12.49314929950072</v>
       </c>
       <c r="D2">
-        <v>10.45597354189872</v>
+        <v>7.127397361878798</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.70197540192411</v>
+        <v>23.51557584089302</v>
       </c>
       <c r="G2">
-        <v>3.637569065551868</v>
+        <v>2.074272251715986</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.06776927751137</v>
+        <v>6.538393781633567</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.34413240756627</v>
+        <v>15.05533789848365</v>
       </c>
       <c r="N2">
-        <v>17.67072498597568</v>
+        <v>11.77122624387426</v>
       </c>
       <c r="O2">
-        <v>23.14078447566093</v>
+        <v>16.12928650955515</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.79903856225786</v>
+        <v>17.68676402792545</v>
       </c>
       <c r="C3">
-        <v>6.657861896246311</v>
+        <v>11.73106174770678</v>
       </c>
       <c r="D3">
-        <v>10.44229342651588</v>
+        <v>6.921592437886599</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.71141831923629</v>
+        <v>22.90680480853781</v>
       </c>
       <c r="G3">
-        <v>3.639749351830011</v>
+        <v>2.079962878902349</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.09396232882589</v>
+        <v>6.535699714555217</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.19908823864537</v>
+        <v>14.2787623899855</v>
       </c>
       <c r="N3">
-        <v>17.72789749605345</v>
+        <v>11.95073690915983</v>
       </c>
       <c r="O3">
-        <v>23.18266553470111</v>
+        <v>15.85850340137993</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50147432924666</v>
+        <v>16.86070557996675</v>
       </c>
       <c r="C4">
-        <v>6.380264284868953</v>
+        <v>11.23738723935037</v>
       </c>
       <c r="D4">
-        <v>10.43544051920198</v>
+        <v>6.795303873811267</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.72587714722316</v>
+        <v>22.54825369738519</v>
       </c>
       <c r="G4">
-        <v>3.641159532637534</v>
+        <v>2.083564813917947</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.11158790185934</v>
+        <v>6.537712674012412</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.11236247483355</v>
+        <v>13.78568472638636</v>
       </c>
       <c r="N4">
-        <v>17.76484286231151</v>
+        <v>12.06420329172278</v>
       </c>
       <c r="O4">
-        <v>23.21437748494183</v>
+        <v>15.70668555251554</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.37860906608532</v>
+        <v>16.51247811786603</v>
       </c>
       <c r="C5">
-        <v>6.26324163770474</v>
+        <v>11.02976251714318</v>
       </c>
       <c r="D5">
-        <v>10.43303910207635</v>
+        <v>6.743927614181647</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.73394468762481</v>
+        <v>22.4060834373136</v>
       </c>
       <c r="G5">
-        <v>3.641752223775823</v>
+        <v>2.085060450911465</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.11915844335343</v>
+        <v>6.539427588594276</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.07763960728647</v>
+        <v>13.58089109332758</v>
       </c>
       <c r="N5">
-        <v>17.78036252317901</v>
+        <v>12.11126443825294</v>
       </c>
       <c r="O5">
-        <v>23.22880406061364</v>
+        <v>15.64840700283936</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.3581163252368</v>
+        <v>16.45395256330352</v>
       </c>
       <c r="C6">
-        <v>6.243575400836955</v>
+        <v>10.99489819994555</v>
       </c>
       <c r="D6">
-        <v>10.43266403760676</v>
+        <v>6.73540395819553</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.73541559200172</v>
+        <v>22.38271729588631</v>
       </c>
       <c r="G6">
-        <v>3.641851730414528</v>
+        <v>2.085310500236775</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.12043895852199</v>
+        <v>6.539765580324561</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.07191218216852</v>
+        <v>13.546659587497</v>
       </c>
       <c r="N6">
-        <v>17.78296761664036</v>
+        <v>12.11912879044981</v>
       </c>
       <c r="O6">
-        <v>23.23129026786638</v>
+        <v>15.63894509903862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4998235613357</v>
+        <v>16.85605632608738</v>
       </c>
       <c r="C7">
-        <v>6.378701830174492</v>
+        <v>11.23461320291794</v>
       </c>
       <c r="D7">
-        <v>10.43540654608354</v>
+        <v>6.794610549370486</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.72597714478151</v>
+        <v>22.5463202390489</v>
       </c>
       <c r="G7">
-        <v>3.641167452793485</v>
+        <v>2.083584871064907</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.11168842994104</v>
+        <v>6.537732215894998</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.11189164374949</v>
+        <v>13.78293810701765</v>
       </c>
       <c r="N7">
-        <v>17.76505028515813</v>
+        <v>12.06483463494154</v>
       </c>
       <c r="O7">
-        <v>23.21456596440028</v>
+        <v>15.70588512518977</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.11053875302103</v>
+        <v>18.52877667581964</v>
       </c>
       <c r="C8">
-        <v>6.940690591669128</v>
+        <v>12.23573732511387</v>
       </c>
       <c r="D8">
-        <v>10.45093703071228</v>
+        <v>7.056459673576108</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.7034327270385</v>
+        <v>23.30257848339008</v>
       </c>
       <c r="G8">
-        <v>3.638306028177488</v>
+        <v>2.076212421437002</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.07648040549013</v>
+        <v>6.53668714900338</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.2936568185116</v>
+        <v>14.79107252810129</v>
       </c>
       <c r="N8">
-        <v>17.69005660650178</v>
+        <v>11.8324515116682</v>
       </c>
       <c r="O8">
-        <v>23.1539780242778</v>
+        <v>16.03290023749842</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.24405346480193</v>
+        <v>21.44818833065338</v>
       </c>
       <c r="C9">
-        <v>7.918353713140169</v>
+        <v>13.99417117989422</v>
       </c>
       <c r="D9">
-        <v>10.49355743269644</v>
+        <v>7.567770058968572</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.7279920504852</v>
+        <v>24.9013238997396</v>
       </c>
       <c r="G9">
-        <v>3.633259281782129</v>
+        <v>2.062577657316611</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.01968025325703</v>
+        <v>6.564976855425614</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.66713987210077</v>
+        <v>16.63107050315147</v>
       </c>
       <c r="N9">
-        <v>17.55755159666633</v>
+        <v>11.40223931836887</v>
       </c>
       <c r="O9">
-        <v>23.08291576116294</v>
+        <v>16.79014633958927</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.02902936457002</v>
+        <v>23.37772660702451</v>
       </c>
       <c r="C10">
-        <v>8.56030504557434</v>
+        <v>15.16149071621146</v>
       </c>
       <c r="D10">
-        <v>10.53213068749993</v>
+        <v>7.938735782179991</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.78794129653967</v>
+        <v>26.13959509695728</v>
       </c>
       <c r="G10">
-        <v>3.629891886679638</v>
+        <v>2.053012340227782</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.98541276212337</v>
+        <v>6.605977334625359</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.94991729532204</v>
+        <v>18.11422328616425</v>
       </c>
       <c r="N10">
-        <v>17.46900217109954</v>
+        <v>11.10138304864721</v>
       </c>
       <c r="O10">
-        <v>23.06001439535414</v>
+        <v>17.41840270930508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.37423297662803</v>
+        <v>24.20980905844417</v>
       </c>
       <c r="C11">
-        <v>8.835740892264496</v>
+        <v>15.66571784222971</v>
       </c>
       <c r="D11">
-        <v>10.55121730727674</v>
+        <v>8.105878165401553</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.82427895689543</v>
+        <v>26.71540674705585</v>
       </c>
       <c r="G11">
-        <v>3.628433113190126</v>
+        <v>2.048747298325971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.97144408153282</v>
+        <v>6.629393999953328</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.07994103085872</v>
+        <v>18.76203412610713</v>
       </c>
       <c r="N11">
-        <v>17.43061482775194</v>
+        <v>10.96777468958858</v>
       </c>
       <c r="O11">
-        <v>23.05599015872033</v>
+        <v>17.71994103591929</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.50313689205283</v>
+        <v>24.51841783724151</v>
       </c>
       <c r="C12">
-        <v>8.937656072533105</v>
+        <v>15.85283103677556</v>
       </c>
       <c r="D12">
-        <v>10.55866269813642</v>
+        <v>8.168896744042776</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.83933735710488</v>
+        <v>26.93515497444852</v>
       </c>
       <c r="G12">
-        <v>3.627891161729676</v>
+        <v>2.047143606058192</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.9663874025355</v>
+        <v>6.638977687695331</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.12933984078669</v>
+        <v>19.00246286814027</v>
       </c>
       <c r="N12">
-        <v>17.41634982827334</v>
+        <v>10.91764720273606</v>
       </c>
       <c r="O12">
-        <v>23.0553870717086</v>
+        <v>17.83639217488279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.47545752437697</v>
+        <v>24.4522403423085</v>
       </c>
       <c r="C13">
-        <v>8.915812938108328</v>
+        <v>15.81270257086051</v>
       </c>
       <c r="D13">
-        <v>10.55704957833549</v>
+        <v>8.155337394668846</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.83603663296311</v>
+        <v>26.88775400573783</v>
       </c>
       <c r="G13">
-        <v>3.628007416553432</v>
+        <v>2.047488500482812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.96746608759866</v>
+        <v>6.636881311716344</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.11869433538514</v>
+        <v>18.95089823617246</v>
       </c>
       <c r="N13">
-        <v>17.41940999277703</v>
+        <v>10.92842226971097</v>
       </c>
       <c r="O13">
-        <v>23.05547598912198</v>
+        <v>17.81121157186742</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.38487496933835</v>
+        <v>24.23532791200772</v>
       </c>
       <c r="C14">
-        <v>8.844173338471972</v>
+        <v>15.68118827728182</v>
       </c>
       <c r="D14">
-        <v>10.55182550276454</v>
+        <v>8.11106846862546</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.82549184201999</v>
+        <v>26.73345198356156</v>
       </c>
       <c r="G14">
-        <v>3.628388317299085</v>
+        <v>2.048615139494939</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.9710233965508</v>
+        <v>6.630167920358356</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.08400207745137</v>
+        <v>18.78191178577543</v>
       </c>
       <c r="N14">
-        <v>17.42943580258311</v>
+        <v>10.96364130673028</v>
       </c>
       <c r="O14">
-        <v>23.05592208247177</v>
+        <v>17.729476136331</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.32915091168999</v>
+        <v>24.10162112587222</v>
       </c>
       <c r="C15">
-        <v>8.799981253765154</v>
+        <v>15.60013451343814</v>
       </c>
       <c r="D15">
-        <v>10.54865384433168</v>
+        <v>8.083915545468061</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.81920171309385</v>
+        <v>26.63915639710476</v>
       </c>
       <c r="G15">
-        <v>3.628622989903923</v>
+        <v>2.049306689786294</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.9732326896939</v>
+        <v>6.626149987885782</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.06277199733788</v>
+        <v>18.67776896235574</v>
       </c>
       <c r="N15">
-        <v>17.43561222459787</v>
+        <v>10.98527482667211</v>
       </c>
       <c r="O15">
-        <v>23.05631527349447</v>
+        <v>17.67970584949163</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00622077436713</v>
+        <v>23.3224361696604</v>
       </c>
       <c r="C16">
-        <v>8.541970707429797</v>
+        <v>15.1280012311338</v>
       </c>
       <c r="D16">
-        <v>10.53091400099747</v>
+        <v>7.927776396628284</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.78574853902451</v>
+        <v>26.10220746836748</v>
       </c>
       <c r="G16">
-        <v>3.62998868678638</v>
+        <v>2.05329272126522</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.98635824564298</v>
+        <v>6.604545535752428</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.94144461578217</v>
+        <v>18.07120001306469</v>
       </c>
       <c r="N16">
-        <v>17.47154891073035</v>
+        <v>11.11018002640049</v>
       </c>
       <c r="O16">
-        <v>23.06040618096834</v>
+        <v>17.39901337114689</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.80498807500203</v>
+        <v>22.83279255735715</v>
       </c>
       <c r="C17">
-        <v>8.379439073151641</v>
+        <v>14.83151699016386</v>
       </c>
       <c r="D17">
-        <v>10.52042293048951</v>
+        <v>7.831544815392243</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.76754471784136</v>
+        <v>25.77593680222477</v>
       </c>
       <c r="G17">
-        <v>3.630845174963801</v>
+        <v>2.055759415822846</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.99482524222494</v>
+        <v>6.592534379976903</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.86734253093158</v>
+        <v>17.69031433298531</v>
       </c>
       <c r="N17">
-        <v>17.49407939074556</v>
+        <v>11.18763740427402</v>
       </c>
       <c r="O17">
-        <v>23.06455460611362</v>
+        <v>17.23085074756208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68813113684537</v>
+        <v>22.54685811928086</v>
       </c>
       <c r="C18">
-        <v>8.284393429126254</v>
+        <v>14.65846327061806</v>
       </c>
       <c r="D18">
-        <v>10.51453387823821</v>
+        <v>7.77604541855735</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.75792817244405</v>
+        <v>25.5894576128742</v>
       </c>
       <c r="G18">
-        <v>3.631344685292036</v>
+        <v>2.057186378488386</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.99984769423678</v>
+        <v>6.586072536334886</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.82485377785553</v>
+        <v>17.46799128674305</v>
       </c>
       <c r="N18">
-        <v>17.50721667565373</v>
+        <v>11.23249493419504</v>
       </c>
       <c r="O18">
-        <v>23.06754243473275</v>
+        <v>17.13560976554998</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.64837770811606</v>
+        <v>22.44930381784718</v>
       </c>
       <c r="C19">
-        <v>8.251944431171927</v>
+        <v>14.59943610053361</v>
       </c>
       <c r="D19">
-        <v>10.51256498150274</v>
+        <v>7.757230000648936</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.75481896469006</v>
+        <v>25.52652543852981</v>
       </c>
       <c r="G19">
-        <v>3.63151499434889</v>
+        <v>2.057670959206963</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.0015743939182</v>
+        <v>6.58396044155249</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.81049177677127</v>
+        <v>17.39215661133869</v>
       </c>
       <c r="N19">
-        <v>17.51169539500732</v>
+        <v>11.24773554318019</v>
       </c>
       <c r="O19">
-        <v>23.06865736239604</v>
+        <v>17.10361723137497</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.82652567856178</v>
+        <v>22.88536083845049</v>
       </c>
       <c r="C20">
-        <v>8.396902489371492</v>
+        <v>14.86333928234745</v>
       </c>
       <c r="D20">
-        <v>10.52152472792753</v>
+        <v>7.841804638114566</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.76939421530695</v>
+        <v>25.81054719843205</v>
       </c>
       <c r="G20">
-        <v>3.630753288565622</v>
+        <v>2.055495991987665</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.99390813668455</v>
+        <v>6.593766537357837</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.87521735313195</v>
+        <v>17.73119587936621</v>
       </c>
       <c r="N20">
-        <v>17.49166253108827</v>
+        <v>11.17936026480664</v>
       </c>
       <c r="O20">
-        <v>23.064050706588</v>
+        <v>17.24859858187926</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.41153137354508</v>
+        <v>24.29921559447546</v>
       </c>
       <c r="C21">
-        <v>8.865280386031605</v>
+        <v>15.71992082822154</v>
       </c>
       <c r="D21">
-        <v>10.55335406232126</v>
+        <v>8.124079088661471</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.82855392464025</v>
+        <v>26.77872876988698</v>
       </c>
       <c r="G21">
-        <v>3.628276154209082</v>
+        <v>2.04828391776829</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.96997220608337</v>
+        <v>6.632120116026597</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.09418794861271</v>
+        <v>18.83167914086511</v>
       </c>
       <c r="N21">
-        <v>17.42648361935548</v>
+        <v>10.95328394073023</v>
       </c>
       <c r="O21">
-        <v>23.05576605585183</v>
+        <v>17.75342232852986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.78323358720843</v>
+        <v>25.1855070705306</v>
       </c>
       <c r="C22">
-        <v>9.157483794040401</v>
+        <v>16.2574581954955</v>
       </c>
       <c r="D22">
-        <v>10.57542345581773</v>
+        <v>8.306945668081148</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.87478094495084</v>
+        <v>27.42137237383919</v>
       </c>
       <c r="G22">
-        <v>3.626718115562094</v>
+        <v>2.04363625226174</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.95568654978669</v>
+        <v>6.661376334625515</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.2382226009439</v>
+        <v>19.52248173893317</v>
       </c>
       <c r="N22">
-        <v>17.38546725860113</v>
+        <v>10.80825371011293</v>
       </c>
       <c r="O22">
-        <v>23.05571888385917</v>
+        <v>18.09655797826658</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.58585426490859</v>
+        <v>24.71590110539491</v>
       </c>
       <c r="C23">
-        <v>9.002801651626932</v>
+        <v>15.97259348573391</v>
       </c>
       <c r="D23">
-        <v>10.56352993403096</v>
+        <v>8.20950673628289</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.84941897780399</v>
+        <v>27.07750531899379</v>
       </c>
       <c r="G23">
-        <v>3.627544114137567</v>
+        <v>2.046111130627347</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.96318682159911</v>
+        <v>6.645367973637681</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.16127645304474</v>
+        <v>19.15636379608358</v>
       </c>
       <c r="N23">
-        <v>17.40721402799085</v>
+        <v>10.88540956225322</v>
       </c>
       <c r="O23">
-        <v>23.05525266095609</v>
+        <v>17.91221121449983</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.81679215014772</v>
+        <v>22.86160852903848</v>
       </c>
       <c r="C24">
-        <v>8.389012275120708</v>
+        <v>14.84896052741925</v>
       </c>
       <c r="D24">
-        <v>10.52102616146408</v>
+        <v>7.837166712711628</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.76855541224856</v>
+        <v>25.79489641003019</v>
       </c>
       <c r="G24">
-        <v>3.630794808273735</v>
+        <v>2.055615058333011</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.99432227833613</v>
+        <v>6.593208099854622</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.87165678951249</v>
+        <v>17.7127237621375</v>
       </c>
       <c r="N24">
-        <v>17.49275461943854</v>
+        <v>11.18310134328621</v>
       </c>
       <c r="O24">
-        <v>23.06427664181916</v>
+        <v>17.24057030717828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.94523756941284</v>
+        <v>20.69657142137186</v>
       </c>
       <c r="C25">
-        <v>7.667255372727612</v>
+        <v>13.54040343153003</v>
       </c>
       <c r="D25">
-        <v>10.48074033843802</v>
+        <v>7.430047930159779</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.71398193021379</v>
+        <v>24.45715185897592</v>
       </c>
       <c r="G25">
-        <v>3.634564509281321</v>
+        <v>2.066183067996074</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.03373547464611</v>
+        <v>6.553898985339232</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.56448338534523</v>
+        <v>16.14892770642606</v>
       </c>
       <c r="N25">
-        <v>17.59184682850477</v>
+        <v>11.51593075721878</v>
       </c>
       <c r="O25">
-        <v>23.09700517200572</v>
+        <v>16.57271741355386</v>
       </c>
     </row>
   </sheetData>
